--- a/data/tcData.xlsx
+++ b/data/tcData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>username</t>
   </si>
@@ -106,79 +106,82 @@
     <t>test发送邮件1</t>
   </si>
   <si>
+    <t>发送普通测试邮件</t>
+  </si>
+  <si>
+    <t>test发送邮件2</t>
+  </si>
+  <si>
+    <t>发送带附件的邮件</t>
+  </si>
+  <si>
+    <t>D:\KeyWordDriverTestFrameWork\geckodriver.log</t>
+  </si>
+  <si>
+    <t>linux3</t>
+  </si>
+  <si>
+    <t>1@qq.com</t>
+  </si>
+  <si>
+    <t>添加联系人3</t>
+  </si>
+  <si>
+    <t>linux4</t>
+  </si>
+  <si>
+    <t>1@.com</t>
+  </si>
+  <si>
+    <t>添加联系人4</t>
+  </si>
+  <si>
+    <t>linux5</t>
+  </si>
+  <si>
+    <t>@@qq.cn</t>
+  </si>
+  <si>
+    <t>添加联系人5</t>
+  </si>
+  <si>
+    <t>linux6</t>
+  </si>
+  <si>
+    <t>1@aa.com</t>
+  </si>
+  <si>
+    <t>添加联系人6</t>
+  </si>
+  <si>
+    <t>linux7</t>
+  </si>
+  <si>
+    <t>添加联系人7</t>
+  </si>
+  <si>
+    <t>281754042@qq.com</t>
+  </si>
+  <si>
+    <t>添加联系人8</t>
+  </si>
+  <si>
+    <t>linux9</t>
+  </si>
+  <si>
+    <t>添加联系人9</t>
+  </si>
+  <si>
+    <t>linux10</t>
+  </si>
+  <si>
+    <t>281754044@qq.com</t>
+  </si>
+  <si>
+    <t>添加联系人10</t>
+  </si>
+  <si>
     <t>发送不带附件的邮件</t>
-  </si>
-  <si>
-    <t>test发送邮件2</t>
-  </si>
-  <si>
-    <t>发送带附件的邮件</t>
-  </si>
-  <si>
-    <t>D:\KeyWordDriverTestFrameWork\geckodriver.log</t>
-  </si>
-  <si>
-    <t>linux3</t>
-  </si>
-  <si>
-    <t>1@qq.com</t>
-  </si>
-  <si>
-    <t>添加联系人3</t>
-  </si>
-  <si>
-    <t>linux4</t>
-  </si>
-  <si>
-    <t>1@.com</t>
-  </si>
-  <si>
-    <t>添加联系人4</t>
-  </si>
-  <si>
-    <t>linux5</t>
-  </si>
-  <si>
-    <t>@@qq.cn</t>
-  </si>
-  <si>
-    <t>添加联系人5</t>
-  </si>
-  <si>
-    <t>linux6</t>
-  </si>
-  <si>
-    <t>1@aa.com</t>
-  </si>
-  <si>
-    <t>添加联系人6</t>
-  </si>
-  <si>
-    <t>linux7</t>
-  </si>
-  <si>
-    <t>添加联系人7</t>
-  </si>
-  <si>
-    <t>281754042@qq.com</t>
-  </si>
-  <si>
-    <t>添加联系人8</t>
-  </si>
-  <si>
-    <t>linux9</t>
-  </si>
-  <si>
-    <t>添加联系人9</t>
-  </si>
-  <si>
-    <t>linux10</t>
-  </si>
-  <si>
-    <t>281754044@qq.com</t>
-  </si>
-  <si>
-    <t>添加联系人10</t>
   </si>
 </sst>
 </file>
@@ -237,6 +240,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -244,6 +262,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -253,7 +286,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,8 +345,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,79 +361,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -383,187 +386,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,56 +591,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,15 +619,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -689,6 +633,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -697,10 +700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,133 +712,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1380,7 +1383,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1642,7 +1645,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1"/>
     </row>

--- a/data/tcData.xlsx
+++ b/data/tcData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="2"/>
+    <workbookView windowWidth="12435" windowHeight="6255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>username</t>
   </si>
@@ -116,72 +116,6 @@
   </si>
   <si>
     <t>D:\KeyWordDriverTestFrameWork\geckodriver.log</t>
-  </si>
-  <si>
-    <t>linux3</t>
-  </si>
-  <si>
-    <t>1@qq.com</t>
-  </si>
-  <si>
-    <t>添加联系人3</t>
-  </si>
-  <si>
-    <t>linux4</t>
-  </si>
-  <si>
-    <t>1@.com</t>
-  </si>
-  <si>
-    <t>添加联系人4</t>
-  </si>
-  <si>
-    <t>linux5</t>
-  </si>
-  <si>
-    <t>@@qq.cn</t>
-  </si>
-  <si>
-    <t>添加联系人5</t>
-  </si>
-  <si>
-    <t>linux6</t>
-  </si>
-  <si>
-    <t>1@aa.com</t>
-  </si>
-  <si>
-    <t>添加联系人6</t>
-  </si>
-  <si>
-    <t>linux7</t>
-  </si>
-  <si>
-    <t>添加联系人7</t>
-  </si>
-  <si>
-    <t>281754042@qq.com</t>
-  </si>
-  <si>
-    <t>添加联系人8</t>
-  </si>
-  <si>
-    <t>linux9</t>
-  </si>
-  <si>
-    <t>添加联系人9</t>
-  </si>
-  <si>
-    <t>linux10</t>
-  </si>
-  <si>
-    <t>281754044@qq.com</t>
-  </si>
-  <si>
-    <t>添加联系人10</t>
-  </si>
-  <si>
-    <t>发送不带附件的邮件</t>
   </si>
 </sst>
 </file>
@@ -191,8 +125,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -240,9 +174,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,7 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,23 +234,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,9 +281,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,31 +305,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,21 +525,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +554,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -658,6 +603,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -666,32 +626,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -700,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,133 +646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1382,7 +1316,7 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1449,222 +1383,95 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>13691579843</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" ht="14.25" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>13691579844</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>13691579845</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" ht="14.25" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>13691579846</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" ht="14.25" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>13691579847</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" ht="14.25" spans="1:6">
       <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>13691579848</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" ht="14.25" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" ht="14.25" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>13691579850</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" ht="14.25" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="1@qq.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="1@.com"/>
-    <hyperlink ref="B4" r:id="rId3" display="1@aa.com"/>
-    <hyperlink ref="B6" r:id="rId4" display="281754042@qq.com"/>
-    <hyperlink ref="B7" r:id="rId4" display="281754043@qq.com"/>
-    <hyperlink ref="B8" r:id="rId4" display="281754044@qq.com"/>
-    <hyperlink ref="F6" r:id="rId4" display="281754042@qq.com"/>
-    <hyperlink ref="F1" r:id="rId1" display="1@qq.com"/>
-    <hyperlink ref="F4" r:id="rId3" display="1@aa.com"/>
-    <hyperlink ref="F7" r:id="rId4" display="281754043@qq.com"/>
-    <hyperlink ref="F8" r:id="rId4" display="281754044@qq.com"/>
-    <hyperlink ref="A9" r:id="rId5" display="281754043@qq.com" tooltip="mailto:281754043@qq.com"/>
-    <hyperlink ref="A11" r:id="rId5" display="281754043@qq.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/data/tcData.xlsx
+++ b/data/tcData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12435" windowHeight="6255" activeTab="3"/>
+    <workbookView windowWidth="20400" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <t>发送带附件的邮件</t>
   </si>
   <si>
-    <t>D:\KeyWordDriverTestFrameWork\geckodriver.log</t>
+    <t>D:\\KeyWordDriverTestFrameWork\\geckodriver.log</t>
   </si>
 </sst>
 </file>
@@ -125,8 +125,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -182,22 +182,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -206,21 +244,44 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,68 +297,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,181 +326,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,30 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -570,11 +546,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,15 +564,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,7 +587,42 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1316,8 +1316,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1383,7 +1383,7 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
